--- a/FAB/BOM.xlsx
+++ b/FAB/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C882818</t>
   </si>
   <si>
     <t xml:space="preserve">CL21B103KBANNNC</t>
@@ -663,7 +666,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -729,23 +732,25 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>805</v>
@@ -756,19 +761,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -776,19 +781,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,19 +801,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -816,16 +821,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>1206</v>
@@ -836,16 +841,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>1206</v>
@@ -856,16 +861,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>805</v>
@@ -876,16 +881,16 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>805</v>
@@ -896,16 +901,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>805</v>
@@ -916,16 +921,16 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>805</v>
@@ -936,16 +941,16 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>805</v>
@@ -956,16 +961,16 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,16 +978,16 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>805</v>
@@ -993,16 +998,16 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>1206</v>
@@ -1013,19 +1018,19 @@
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,13 +1038,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,19 +1052,19 @@
         <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,19 +1072,19 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,16 +1092,16 @@
         <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1206</v>
@@ -1107,16 +1112,16 @@
         <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>805</v>
@@ -1127,19 +1132,19 @@
         <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,16 +1152,16 @@
         <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>805</v>
@@ -1167,16 +1172,16 @@
         <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>805</v>
